--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
   <si>
     <t>Mag/Tube</t>
   </si>
@@ -239,6 +239,36 @@
   </si>
   <si>
     <t>the gun that no one uses</t>
+  </si>
+  <si>
+    <t>GSO</t>
+  </si>
+  <si>
+    <t>FAS2 Reloaded</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>Random Comparison of non sharing attachments between shared weapons cuz im really fucking bored</t>
+  </si>
+  <si>
+    <t>5 + 2</t>
+  </si>
+  <si>
+    <t>0 + 1</t>
+  </si>
+  <si>
+    <t>M4A1/AR15</t>
+  </si>
+  <si>
+    <t>SG556/2/whatever</t>
+  </si>
+  <si>
+    <t>G18/G20</t>
+  </si>
+  <si>
+    <t>MAC10/11</t>
   </si>
   <si>
     <r>
@@ -303,7 +333,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> =  unofficial (be it from other mod or from god knows where</t>
+      <t xml:space="preserve"> =  unofficial (be it from other mod or from god knows where)</t>
     </r>
   </si>
 </sst>
@@ -578,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,10 +669,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,13 +1279,13 @@
         <v>32</v>
       </c>
       <c r="G9" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>63</v>
@@ -1356,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>72</v>
@@ -1388,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>63</v>
@@ -1621,46 +1663,345 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2">
+        <v>14</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2">
+        <v>8</v>
+      </c>
+      <c r="I33" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2">
+        <v>5</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
+        <v>10</v>
+      </c>
+      <c r="H35" s="2">
+        <v>8</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2">
+        <v>5</v>
+      </c>
+      <c r="I36" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2">
+        <v>7</v>
+      </c>
+      <c r="I37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
+        <v>7</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3</v>
+      </c>
+      <c r="I38" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9">
+        <v>2</v>
+      </c>
+      <c r="H40" s="9">
+        <v>7</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A29:I30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="F31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
   <si>
     <t>Mag/Tube</t>
   </si>
@@ -241,9 +241,6 @@
     <t>the gun that no one uses</t>
   </si>
   <si>
-    <t>GSO</t>
-  </si>
-  <si>
     <t>FAS2 Reloaded</t>
   </si>
   <si>
@@ -269,6 +266,12 @@
   </si>
   <si>
     <t>MAC10/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sad </t>
+  </si>
+  <si>
+    <t>Gunsmith Offensive (and GSO Extra)</t>
   </si>
   <si>
     <r>
@@ -333,7 +336,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> =  unofficial (be it from other mod or from god knows where)</t>
+      <t xml:space="preserve"> =  unofficial (be it from other mod or stolen from god knows where)</t>
     </r>
   </si>
 </sst>
@@ -341,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +377,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,7 +396,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -604,11 +617,222 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,19 +895,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -992,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,12 +1947,12 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -1676,13 +1960,13 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="A25" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -1699,108 +1983,110 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="22">
+        <v>3</v>
+      </c>
+      <c r="C32" s="23">
+        <v>9</v>
+      </c>
+      <c r="D32" s="24">
+        <v>2</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="44"/>
+      <c r="G32" s="22">
+        <v>11</v>
+      </c>
+      <c r="H32" s="23">
+        <v>14</v>
+      </c>
+      <c r="I32" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
-        <v>11</v>
-      </c>
-      <c r="H32" s="2">
-        <v>14</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
+      <c r="F33" s="44"/>
+      <c r="G33" s="6">
         <v>13</v>
       </c>
       <c r="H33" s="2">
@@ -1810,47 +2096,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="6">
         <v>2</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
+      <c r="F34" s="44"/>
+      <c r="G34" s="6">
         <v>4</v>
       </c>
       <c r="H34" s="2">
         <v>5</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="2">
+      <c r="I34" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="6">
         <v>3</v>
       </c>
       <c r="C35" s="2">
         <v>2</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="7">
         <v>2</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
+      <c r="F35" s="44"/>
+      <c r="G35" s="6">
         <v>10</v>
       </c>
       <c r="H35" s="2">
@@ -1860,22 +2146,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="6">
         <v>2</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="7">
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
+      <c r="E36" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="44"/>
+      <c r="G36" s="6">
         <v>8</v>
       </c>
       <c r="H36" s="2">
@@ -1885,22 +2171,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="6">
         <v>3</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="7">
         <v>2</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
+      <c r="F37" s="44"/>
+      <c r="G37" s="6">
         <v>8</v>
       </c>
       <c r="H37" s="2">
@@ -1910,22 +2196,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="6">
         <v>3</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="7">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2">
+      <c r="E38" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="44"/>
+      <c r="G38" s="6">
         <v>7</v>
       </c>
       <c r="H38" s="2">
@@ -1935,47 +2221,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="6">
         <v>3</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="38">
         <v>5</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="7">
         <v>0</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2">
+      <c r="E39" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="44"/>
+      <c r="G39" s="6">
         <v>8</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="38">
         <v>3</v>
       </c>
       <c r="I39" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9">
+      <c r="J39" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="8">
         <v>2</v>
       </c>
       <c r="C40" s="9">
         <v>2</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="10">
         <v>0</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9">
+      <c r="F40" s="45"/>
+      <c r="G40" s="8">
         <v>2</v>
       </c>
       <c r="H40" s="9">
@@ -1985,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -257,12 +257,6 @@
   </si>
   <si>
     <t>M4A1/AR15</t>
-  </si>
-  <si>
-    <t>SG556/2/whatever</t>
-  </si>
-  <si>
-    <t>G18/G20</t>
   </si>
   <si>
     <t>MAC10/11</t>
@@ -339,6 +333,12 @@
       <t xml:space="preserve"> =  unofficial (be it from other mod or stolen from god knows where)</t>
     </r>
   </si>
+  <si>
+    <t>G17/18/19/20</t>
+  </si>
+  <si>
+    <t>SG552/3/6/whatever</t>
+  </si>
 </sst>
 </file>
 
@@ -904,24 +904,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,31 +958,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,12 +1947,12 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -1960,13 +1960,13 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -1985,69 +1985,69 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="A31" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
       <c r="I31" s="46"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="22">
         <v>3</v>
       </c>
@@ -2057,10 +2057,10 @@
       <c r="D32" s="24">
         <v>2</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="22">
         <v>11</v>
       </c>
@@ -2072,7 +2072,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="6" t="s">
         <v>78</v>
       </c>
@@ -2082,10 +2082,10 @@
       <c r="D33" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="44"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="6">
         <v>13</v>
       </c>
@@ -2097,32 +2097,32 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="6">
         <v>2</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
       </c>
-      <c r="D34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="41" t="s">
+      <c r="D34" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="44"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="6">
         <v>4</v>
       </c>
       <c r="H34" s="2">
         <v>5</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="6">
         <v>3</v>
       </c>
@@ -2132,10 +2132,10 @@
       <c r="D35" s="7">
         <v>2</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="6">
         <v>10</v>
       </c>
@@ -2147,7 +2147,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="6">
         <v>2</v>
       </c>
@@ -2157,10 +2157,10 @@
       <c r="D36" s="7">
         <v>0</v>
       </c>
-      <c r="E36" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="44"/>
+      <c r="E36" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="34"/>
       <c r="G36" s="6">
         <v>8</v>
       </c>
@@ -2172,7 +2172,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="6">
         <v>3</v>
       </c>
@@ -2182,10 +2182,10 @@
       <c r="D37" s="7">
         <v>2</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="44"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="6">
         <v>8</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="6">
         <v>3</v>
       </c>
@@ -2207,10 +2207,10 @@
       <c r="D38" s="7">
         <v>2</v>
       </c>
-      <c r="E38" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="44"/>
+      <c r="E38" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="34"/>
       <c r="G38" s="6">
         <v>7</v>
       </c>
@@ -2222,35 +2222,35 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="6">
         <v>3</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="29">
         <v>5</v>
       </c>
       <c r="D39" s="7">
         <v>0</v>
       </c>
-      <c r="E39" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="44"/>
+      <c r="E39" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="34"/>
       <c r="G39" s="6">
         <v>8</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="29">
         <v>3</v>
       </c>
       <c r="I39" s="7">
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="8">
         <v>2</v>
       </c>
@@ -2260,10 +2260,10 @@
       <c r="D40" s="10">
         <v>0</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="35"/>
       <c r="G40" s="8">
         <v>2</v>
       </c>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
   <si>
     <t>Mag/Tube</t>
   </si>
@@ -199,9 +199,6 @@
     <t>I really need more stuff for this</t>
   </si>
   <si>
-    <t xml:space="preserve">Need: more pistol stock*, more lhik option, </t>
-  </si>
-  <si>
     <t>Moar stuff when</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
   </si>
   <si>
     <t>I REALLY want a stanag mag version</t>
-  </si>
-  <si>
-    <t>the only shotgun worth doing</t>
   </si>
   <si>
     <t>I REALLY want a garand</t>
@@ -338,6 +332,9 @@
   </si>
   <si>
     <t>SG552/3/6/whatever</t>
+  </si>
+  <si>
+    <t>Need: more pistol stock*, more lhik option,  wire stock</t>
   </si>
 </sst>
 </file>
@@ -1276,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1330,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>26</v>
@@ -1365,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>27</v>
@@ -1444,7 +1441,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1461,7 +1458,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
@@ -1493,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>30</v>
@@ -1525,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>31</v>
@@ -1557,7 +1554,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>32</v>
@@ -1572,7 +1569,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1589,7 +1586,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>33</v>
@@ -1621,7 +1618,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>34</v>
@@ -1636,7 +1633,7 @@
         <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1653,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>36</v>
@@ -1685,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>37</v>
@@ -1700,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1717,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>18</v>
@@ -1732,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1749,7 +1746,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>19</v>
@@ -1781,7 +1778,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>20</v>
@@ -1813,7 +1810,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>21</v>
@@ -1845,7 +1842,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>50</v>
@@ -1860,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1909,24 +1906,24 @@
         <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>40</v>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1948,7 +1945,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -1961,7 +1958,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -1990,7 +1987,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>1</v>
@@ -2001,7 +1998,7 @@
         <v>38</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I28" s="27" t="s">
         <v>1</v>
@@ -2009,7 +2006,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -2033,14 +2030,14 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="4"/>
       <c r="F31" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
@@ -2074,16 +2071,16 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="6">
@@ -2158,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="6">
@@ -2208,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="6">
@@ -2233,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="6">
@@ -2246,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E25"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>62</v>
@@ -1566,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>62</v>
@@ -2215,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1688,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>39</v>
@@ -1705,13 +1705,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>62</v>
@@ -2134,13 +2134,13 @@
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35" s="2">
         <v>8</v>
       </c>
       <c r="I35" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>do I have to ?</t>
-  </si>
-  <si>
-    <t>h</t>
   </si>
   <si>
     <t>one off gun is fun</t>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>Need: more pistol stock*, more lhik option,  wire stock</t>
+  </si>
+  <si>
+    <t>its gonna b smth I guess</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>30</v>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>31</v>
@@ -1554,7 +1554,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>32</v>
@@ -1586,7 +1586,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>33</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>37</v>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1729,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>19</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1906,7 +1906,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1945,7 +1945,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -1987,7 +1987,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>38</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I28" s="27" t="s">
         <v>1</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -2030,14 +2030,14 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="4"/>
       <c r="F31" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
@@ -2071,16 +2071,16 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="32" t="s">
         <v>77</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>78</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="6">
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="6">
@@ -2205,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="6">
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="6">
@@ -2243,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
   <si>
     <t>Mag/Tube</t>
   </si>
@@ -325,9 +325,6 @@
     </r>
   </si>
   <si>
-    <t>G17/18/19/20</t>
-  </si>
-  <si>
     <t>SG552/3/6/whatever</t>
   </si>
   <si>
@@ -335,6 +332,24 @@
   </si>
   <si>
     <t>its gonna b smth I guess</t>
+  </si>
+  <si>
+    <t>MP5/UMP Hybrid</t>
+  </si>
+  <si>
+    <t>3 + 2</t>
+  </si>
+  <si>
+    <t>2 + 2</t>
+  </si>
+  <si>
+    <t>2 + 0</t>
+  </si>
+  <si>
+    <t>G17/18/19/20/21/numbers</t>
+  </si>
+  <si>
+    <t>8 + 2</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1289,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,13 +1706,13 @@
         <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1945,7 +1960,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2120,17 +2135,17 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
-      <c r="B35" s="6">
-        <v>3</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7">
-        <v>2</v>
+      <c r="B35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="6">
@@ -2155,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="6">
@@ -2230,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="6">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="95">
   <si>
     <t>Mag/Tube</t>
   </si>
@@ -351,12 +351,24 @@
   <si>
     <t>8 + 2</t>
   </si>
+  <si>
+    <t>9+7</t>
+  </si>
+  <si>
+    <t>M4A1/HK416</t>
+  </si>
+  <si>
+    <t>Low Poly Pack</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +411,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -408,7 +434,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -840,11 +866,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -949,6 +999,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -980,6 +1036,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1286,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,12 +2042,12 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -1972,13 +2055,13 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -2020,43 +2103,43 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="48"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
@@ -2296,8 +2379,301 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="41"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="37">
+        <v>8</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="51"/>
+      <c r="G49" s="36">
+        <v>11</v>
+      </c>
+      <c r="H49" s="37">
+        <v>14</v>
+      </c>
+      <c r="I49" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="6">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+      <c r="D50" s="7">
+        <v>4</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="34"/>
+      <c r="G50" s="6">
+        <v>13</v>
+      </c>
+      <c r="H50" s="2">
+        <v>8</v>
+      </c>
+      <c r="I50" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="6">
+        <v>2</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="6">
+        <v>3</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="34"/>
+      <c r="G52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="34"/>
+      <c r="G53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="34"/>
+      <c r="G54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="34"/>
+      <c r="G55" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="34"/>
+      <c r="G56" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="B57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A46:I47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="F48:I48"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A29:I30"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="95">
   <si>
     <t>Mag/Tube</t>
   </si>
@@ -1005,64 +1005,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,14 +1994,14 @@
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>40</v>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>71</v>
@@ -2042,12 +2042,12 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -2055,13 +2055,13 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -2103,43 +2103,43 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="48"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
@@ -2404,37 +2404,37 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="41"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="46"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="49"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="52" t="s">
         <v>72</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="I48" s="54"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="43" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="36" t="s">
@@ -2452,20 +2452,20 @@
       <c r="C49" s="37">
         <v>8</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="38" t="s">
         <v>91</v>
       </c>
       <c r="E49" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="40"/>
       <c r="G49" s="36">
         <v>11</v>
       </c>
       <c r="H49" s="37">
         <v>14</v>
       </c>
-      <c r="I49" s="49">
+      <c r="I49" s="38">
         <v>3</v>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       <c r="B51" s="6">
         <v>2</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="41" t="s">
         <v>42</v>
       </c>
       <c r="D51" s="28" t="s">
@@ -2512,7 +2512,7 @@
       <c r="G51" s="6">
         <v>3</v>
       </c>
-      <c r="H51" s="55" t="s">
+      <c r="H51" s="41" t="s">
         <v>42</v>
       </c>
       <c r="I51" s="28" t="s">
@@ -2624,7 +2624,7 @@
       <c r="B56" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="7" t="s">
@@ -2637,7 +2637,7 @@
       <c r="G56" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="56" t="s">
+      <c r="H56" s="42" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="7" t="s">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="97">
   <si>
     <t>Mag/Tube</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>how</t>
+  </si>
+  <si>
+    <t>veri veri sad ):</t>
+  </si>
+  <si>
+    <t>mp5+ump</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -890,11 +896,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -957,70 +996,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1063,6 +1102,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1371,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,7 +2049,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -2080,25 +2134,25 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26" t="s">
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="25" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2133,7 +2187,7 @@
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="56" t="s">
         <v>72</v>
       </c>
@@ -2142,32 +2196,32 @@
       <c r="I31" s="57"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="22">
+      <c r="A32" s="28"/>
+      <c r="B32" s="42">
         <v>3</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="43">
         <v>9</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="22">
         <v>2</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="22">
+      <c r="F32" s="32"/>
+      <c r="G32" s="42">
         <v>11</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="43">
         <v>14</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="6" t="s">
         <v>75</v>
       </c>
@@ -2177,10 +2231,10 @@
       <c r="D33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="34"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="6">
         <v>13</v>
       </c>
@@ -2192,32 +2246,34 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="6">
         <v>2</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="32" t="s">
+      <c r="D34" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="34"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="6">
         <v>4</v>
       </c>
       <c r="H34" s="2">
         <v>5</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="B35" s="6" t="s">
         <v>86</v>
       </c>
@@ -2227,10 +2283,10 @@
       <c r="D35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="34"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="6">
         <v>11</v>
       </c>
@@ -2242,7 +2298,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="6">
         <v>2</v>
       </c>
@@ -2252,10 +2308,10 @@
       <c r="D36" s="7">
         <v>0</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="34"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="6">
         <v>8</v>
       </c>
@@ -2267,7 +2323,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="6">
         <v>3</v>
       </c>
@@ -2277,10 +2333,10 @@
       <c r="D37" s="7">
         <v>2</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="34"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="6">
         <v>8</v>
       </c>
@@ -2292,7 +2348,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="6">
         <v>3</v>
       </c>
@@ -2302,10 +2358,10 @@
       <c r="D38" s="7">
         <v>2</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="34"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="6">
         <v>7</v>
       </c>
@@ -2317,24 +2373,24 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="6">
         <v>3</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="27">
         <v>5</v>
       </c>
       <c r="D39" s="7">
         <v>0</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="34"/>
+      <c r="F39" s="32"/>
       <c r="G39" s="6">
         <v>8</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="27">
         <v>3</v>
       </c>
       <c r="I39" s="7">
@@ -2344,62 +2400,80 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="8">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="58"/>
+      <c r="B40" s="59">
         <v>2</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="14">
         <v>2</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="15">
         <v>0</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="8">
+      <c r="F40" s="61"/>
+      <c r="G40" s="59">
         <v>2</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="14">
         <v>7</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="62">
+        <v>5</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="8">
+        <v>6</v>
+      </c>
+      <c r="H41" s="62">
+        <v>3</v>
+      </c>
+      <c r="I41" s="10">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26" t="s">
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="27" t="s">
+      <c r="I45" s="25" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2434,7 +2508,7 @@
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
       <c r="D48" s="51"/>
-      <c r="E48" s="39"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="52" t="s">
         <v>72</v>
       </c>
@@ -2443,34 +2517,34 @@
       <c r="I48" s="54"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="35">
         <v>8</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="36">
+      <c r="F49" s="38"/>
+      <c r="G49" s="34">
         <v>11</v>
       </c>
-      <c r="H49" s="37">
+      <c r="H49" s="35">
         <v>14</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="6">
         <v>3</v>
       </c>
@@ -2480,10 +2554,10 @@
       <c r="D50" s="7">
         <v>4</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="34"/>
+      <c r="F50" s="32"/>
       <c r="G50" s="6">
         <v>13</v>
       </c>
@@ -2495,32 +2569,32 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="6">
         <v>2</v>
       </c>
-      <c r="C51" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="32" t="s">
+      <c r="C51" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="34"/>
+      <c r="F51" s="32"/>
       <c r="G51" s="6">
         <v>3</v>
       </c>
-      <c r="H51" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="28" t="s">
+      <c r="H51" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="6" t="s">
         <v>43</v>
       </c>
@@ -2530,10 +2604,10 @@
       <c r="D52" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F52" s="34"/>
+      <c r="F52" s="32"/>
       <c r="G52" s="6" t="s">
         <v>43</v>
       </c>
@@ -2545,7 +2619,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="6" t="s">
         <v>39</v>
       </c>
@@ -2555,10 +2629,10 @@
       <c r="D53" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53" s="34"/>
+      <c r="E53" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="32"/>
       <c r="G53" s="6" t="s">
         <v>39</v>
       </c>
@@ -2570,7 +2644,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="6" t="s">
         <v>43</v>
       </c>
@@ -2580,10 +2654,10 @@
       <c r="D54" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="34"/>
+      <c r="F54" s="32"/>
       <c r="G54" s="6" t="s">
         <v>43</v>
       </c>
@@ -2595,7 +2669,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="6" t="s">
         <v>39</v>
       </c>
@@ -2605,10 +2679,10 @@
       <c r="D55" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="34"/>
+      <c r="E55" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="32"/>
       <c r="G55" s="6" t="s">
         <v>39</v>
       </c>
@@ -2620,24 +2694,24 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="40" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F56" s="34"/>
+      <c r="F56" s="32"/>
       <c r="G56" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="42" t="s">
+      <c r="H56" s="40" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="7" t="s">
@@ -2645,7 +2719,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="8" t="s">
         <v>39</v>
       </c>
@@ -2655,10 +2729,10 @@
       <c r="D57" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" s="35"/>
+      <c r="E57" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="33"/>
       <c r="G57" s="8" t="s">
         <v>39</v>
       </c>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="99">
   <si>
     <t>Mag/Tube</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Just a fucking russian glock</t>
   </si>
   <si>
-    <t>Only keeping this for Fesiug</t>
-  </si>
-  <si>
     <t>Lazy</t>
   </si>
   <si>
@@ -187,33 +184,12 @@
     <t>Just a fucking scandinavian AK</t>
   </si>
   <si>
-    <t>Just a burst M4</t>
-  </si>
-  <si>
-    <t>just a semi M4</t>
-  </si>
-  <si>
-    <t>maybe for da helix mag</t>
-  </si>
-  <si>
-    <t>I really need more stuff for this</t>
-  </si>
-  <si>
-    <t>Moar stuff when</t>
-  </si>
-  <si>
-    <t>pretty happy with this</t>
-  </si>
-  <si>
     <t>fuck off im not doing shotguns</t>
   </si>
   <si>
     <t>I REALLY want a stanag mag version</t>
   </si>
   <si>
-    <t>I REALLY want a garand</t>
-  </si>
-  <si>
     <t>do I have to ?</t>
   </si>
   <si>
@@ -221,15 +197,6 @@
   </si>
   <si>
     <t>deyhunga moment</t>
-  </si>
-  <si>
-    <t>feels lacking</t>
-  </si>
-  <si>
-    <t>no comment</t>
-  </si>
-  <si>
-    <t>the gun that no one uses</t>
   </si>
   <si>
     <t>FAS2 Reloaded</t>
@@ -331,9 +298,6 @@
     <t>Need: more pistol stock*, more lhik option,  wire stock</t>
   </si>
   <si>
-    <t>its gonna b smth I guess</t>
-  </si>
-  <si>
     <t>MP5/UMP Hybrid</t>
   </si>
   <si>
@@ -368,6 +332,48 @@
   </si>
   <si>
     <t>mp5+ump</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>"univesal" don’t count</t>
+  </si>
+  <si>
+    <t>just a semi M4 (post launch)</t>
+  </si>
+  <si>
+    <t>I REALLY want a garand (post launch)</t>
+  </si>
+  <si>
+    <t>Just a burst M4 (post launch)</t>
+  </si>
+  <si>
+    <t>maybe for da helix mag (post launch)</t>
+  </si>
+  <si>
+    <t>pretty happy with this (done)</t>
+  </si>
+  <si>
+    <t>I really need more stuff for this (done)</t>
+  </si>
+  <si>
+    <t>feels lacking (done)</t>
+  </si>
+  <si>
+    <t>Still need calibre (done)</t>
+  </si>
+  <si>
+    <t>no comment (done)</t>
+  </si>
+  <si>
+    <t>Only keeping this for Fesiug (done)</t>
+  </si>
+  <si>
+    <t>MOM ITS WHITE (done)</t>
+  </si>
+  <si>
+    <t>good enough (done)</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -877,19 +883,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -927,13 +920,63 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1044,22 +1087,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1104,19 +1159,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1425,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="4" t="s">
@@ -1465,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1482,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>26</v>
@@ -1497,7 +1549,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1514,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>27</v>
@@ -1529,7 +1581,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1546,7 +1598,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>28</v>
@@ -1578,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
@@ -1593,7 +1645,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1610,7 +1662,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
@@ -1625,7 +1677,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1642,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>30</v>
@@ -1657,7 +1709,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1674,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>31</v>
@@ -1689,7 +1741,7 @@
         <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1706,7 +1758,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>32</v>
@@ -1721,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1738,7 +1790,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>33</v>
@@ -1753,7 +1805,7 @@
         <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1770,7 +1822,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>34</v>
@@ -1785,7 +1837,7 @@
         <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1802,7 +1854,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>36</v>
@@ -1817,7 +1869,7 @@
         <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1834,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>37</v>
@@ -1843,13 +1895,13 @@
         <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1866,7 +1918,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>18</v>
@@ -1881,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1898,7 +1950,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>19</v>
@@ -1913,7 +1965,7 @@
         <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1930,7 +1982,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>20</v>
@@ -1945,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1962,7 +2014,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>21</v>
@@ -1977,7 +2029,7 @@
         <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1994,10 +2046,10 @@
         <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="2">
         <v>4</v>
@@ -2009,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2026,10 +2078,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>43</v>
@@ -2041,7 +2093,7 @@
         <v>43</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2058,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2075,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2092,16 +2144,16 @@
         <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="A24" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -2109,13 +2161,13 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
+      <c r="A25" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -2139,7 +2191,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>1</v>
@@ -2150,57 +2202,59 @@
         <v>38</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I28" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
+      <c r="A29" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="57"/>
+      <c r="A31" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="42">
+      <c r="B32" s="41">
         <v>3</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="42">
         <v>9</v>
       </c>
       <c r="D32" s="22">
@@ -2210,10 +2264,10 @@
         <v>3</v>
       </c>
       <c r="F32" s="32"/>
-      <c r="G32" s="42">
+      <c r="G32" s="41">
         <v>11</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="42">
         <v>14</v>
       </c>
       <c r="I32" s="22">
@@ -2223,16 +2277,16 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="6">
@@ -2272,21 +2326,23 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E35" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="32"/>
       <c r="G35" s="6">
         <v>11</v>
       </c>
@@ -2309,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="6">
@@ -2359,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="6">
@@ -2384,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="6">
@@ -2397,12 +2453,12 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44">
         <v>2</v>
       </c>
       <c r="C40" s="14">
@@ -2411,11 +2467,11 @@
       <c r="D40" s="15">
         <v>0</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="59">
+      <c r="F40" s="46"/>
+      <c r="G40" s="44">
         <v>2</v>
       </c>
       <c r="H40" s="14">
@@ -2430,7 +2486,7 @@
       <c r="B41" s="8">
         <v>2</v>
       </c>
-      <c r="C41" s="62">
+      <c r="C41" s="47">
         <v>5</v>
       </c>
       <c r="D41" s="10">
@@ -2443,14 +2499,14 @@
       <c r="G41" s="8">
         <v>6</v>
       </c>
-      <c r="H41" s="62">
+      <c r="H41" s="47">
         <v>3</v>
       </c>
       <c r="I41" s="10">
         <v>10</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2460,7 +2516,7 @@
         <v>38</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>1</v>
@@ -2471,68 +2527,68 @@
         <v>38</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I45" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="46"/>
+      <c r="A46" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="50"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="49"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="54"/>
+      <c r="A48" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="58"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="35">
+      <c r="A49" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="64">
         <v>8</v>
       </c>
-      <c r="D49" s="36" t="s">
-        <v>91</v>
+      <c r="D49" s="65" t="s">
+        <v>79</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="38"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="34">
         <v>11</v>
       </c>
@@ -2555,7 +2611,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="6">
@@ -2573,7 +2629,7 @@
       <c r="B51" s="6">
         <v>2</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="38" t="s">
         <v>42</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -2586,7 +2642,7 @@
       <c r="G51" s="6">
         <v>3</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H51" s="38" t="s">
         <v>42</v>
       </c>
       <c r="I51" s="26" t="s">
@@ -2698,7 +2754,7 @@
       <c r="B56" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="39" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="7" t="s">
@@ -2711,7 +2767,7 @@
       <c r="G56" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="40" t="s">
+      <c r="H56" s="39" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="7" t="s">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="99">
   <si>
     <t>Mag/Tube</t>
   </si>
@@ -148,18 +148,12 @@
     <t>x</t>
   </si>
   <si>
-    <t>Just a fucking russian glock</t>
-  </si>
-  <si>
     <t>Lazy</t>
   </si>
   <si>
     <t>3 separate thing means time consuming yes</t>
   </si>
   <si>
-    <t>Only keeping for the obrez meme</t>
-  </si>
-  <si>
     <t>Someone else do it</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
   </si>
   <si>
     <t>one off gun is fun</t>
-  </si>
-  <si>
-    <t>deyhunga moment</t>
   </si>
   <si>
     <t>FAS2 Reloaded</t>
@@ -355,9 +346,6 @@
     <t>pretty happy with this (done)</t>
   </si>
   <si>
-    <t>I really need more stuff for this (done)</t>
-  </si>
-  <si>
     <t>feels lacking (done)</t>
   </si>
   <si>
@@ -374,6 +362,18 @@
   </si>
   <si>
     <t>good enough (done)</t>
+  </si>
+  <si>
+    <t>bad (done)</t>
+  </si>
+  <si>
+    <t>Just a fucking russian glock (post launch??)</t>
+  </si>
+  <si>
+    <t>Only keeping for the obrez meme(post launch??)</t>
+  </si>
+  <si>
+    <t>lol (done)</t>
   </si>
 </sst>
 </file>
@@ -1117,6 +1117,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,12 +1147,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1153,22 +1159,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1489,7 @@
     <col min="5" max="5" width="44.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="42" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="4" t="s">
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>26</v>
@@ -1549,7 +1549,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>27</v>
@@ -1581,7 +1581,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>28</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1621,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
@@ -1645,7 +1645,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
@@ -1677,7 +1677,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>30</v>
@@ -1709,7 +1709,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1720,13 +1720,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>31</v>
@@ -1741,7 +1741,7 @@
         <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>32</v>
@@ -1773,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>33</v>
@@ -1805,7 +1805,7 @@
         <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>34</v>
@@ -1837,7 +1837,7 @@
         <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1854,7 +1854,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>36</v>
@@ -1869,7 +1869,7 @@
         <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>37</v>
@@ -1895,13 +1895,13 @@
         <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1912,13 +1912,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>18</v>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>19</v>
@@ -1965,7 +1965,7 @@
         <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>20</v>
@@ -1997,24 +1997,24 @@
         <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>40</v>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>21</v>
@@ -2029,7 +2029,7 @@
         <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2046,22 +2046,22 @@
         <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2">
-        <v>4</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="H18" s="17">
+        <v>3</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2078,10 +2078,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>43</v>
@@ -2093,7 +2093,7 @@
         <v>43</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2121,13 +2121,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2144,16 +2144,16 @@
         <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="A24" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -2161,13 +2161,13 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
+      <c r="A25" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -2191,7 +2191,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>1</v>
@@ -2202,52 +2202,52 @@
         <v>38</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I28" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
+      <c r="A29" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="57"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="A31" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="61"/>
+        <v>83</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
@@ -2277,16 +2277,16 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="6">
@@ -2326,28 +2326,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G35" s="6">
         <v>11</v>
       </c>
       <c r="H35" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I35" s="7">
         <v>4</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="6">
@@ -2415,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="6">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="6">
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
         <v>10</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2516,7 +2516,7 @@
         <v>38</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>1</v>
@@ -2527,63 +2527,63 @@
         <v>38</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I45" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="50"/>
+      <c r="A46" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="57"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="58"/>
+      <c r="A48" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="60"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="64">
+      <c r="B49" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="50">
         <v>8</v>
       </c>
-      <c r="D49" s="65" t="s">
-        <v>79</v>
+      <c r="D49" s="51" t="s">
+        <v>76</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>3</v>
@@ -2611,7 +2611,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="6">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="103">
   <si>
     <t>Mag/Tube</t>
   </si>
@@ -154,9 +154,6 @@
     <t>3 separate thing means time consuming yes</t>
   </si>
   <si>
-    <t>Someone else do it</t>
-  </si>
-  <si>
     <t>TOZ34</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
   </si>
   <si>
     <t>do I have to ?</t>
-  </si>
-  <si>
-    <t>one off gun is fun</t>
   </si>
   <si>
     <t>FAS2 Reloaded</t>
@@ -331,18 +325,12 @@
     <t>"univesal" don’t count</t>
   </si>
   <si>
-    <t>just a semi M4 (post launch)</t>
-  </si>
-  <si>
     <t>I REALLY want a garand (post launch)</t>
   </si>
   <si>
     <t>Just a burst M4 (post launch)</t>
   </si>
   <si>
-    <t>maybe for da helix mag (post launch)</t>
-  </si>
-  <si>
     <t>pretty happy with this (done)</t>
   </si>
   <si>
@@ -355,9 +343,6 @@
     <t>no comment (done)</t>
   </si>
   <si>
-    <t>Only keeping this for Fesiug (done)</t>
-  </si>
-  <si>
     <t>MOM ITS WHITE (done)</t>
   </si>
   <si>
@@ -374,6 +359,33 @@
   </si>
   <si>
     <t>lol (done)</t>
+  </si>
+  <si>
+    <t>fuel usage I hate you (done)</t>
+  </si>
+  <si>
+    <t>4?</t>
+  </si>
+  <si>
+    <t>5?</t>
+  </si>
+  <si>
+    <t>3?</t>
+  </si>
+  <si>
+    <t>one off gun is fun (done)</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Only keeping for Fesiug (done)</t>
+  </si>
+  <si>
+    <t>Someone else do it (post launch??)</t>
+  </si>
+  <si>
+    <t>just a semi M4 (in progress)</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1490,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="4" t="s">
@@ -1517,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1534,22 +1546,22 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1566,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>27</v>
@@ -1581,7 +1593,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1589,16 +1601,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>28</v>
@@ -1613,7 +1625,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1630,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
@@ -1645,7 +1657,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1662,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
@@ -1677,7 +1689,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1694,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>30</v>
@@ -1709,7 +1721,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1726,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>31</v>
@@ -1741,7 +1753,7 @@
         <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1758,7 +1770,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>32</v>
@@ -1773,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1790,7 +1802,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>33</v>
@@ -1822,7 +1834,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>34</v>
@@ -1837,7 +1849,7 @@
         <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1854,22 +1866,22 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>42</v>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1886,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>37</v>
@@ -1895,13 +1907,13 @@
         <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1918,7 +1930,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>18</v>
@@ -1933,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1950,7 +1962,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>19</v>
@@ -1973,16 +1985,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>20</v>
@@ -2005,7 +2017,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -2014,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>21</v>
@@ -2046,10 +2058,10 @@
         <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -2061,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2078,10 +2090,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>43</v>
@@ -2093,7 +2105,7 @@
         <v>43</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2110,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2127,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2144,12 +2156,12 @@
         <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -2162,7 +2174,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -2191,7 +2203,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>1</v>
@@ -2202,7 +2214,7 @@
         <v>38</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I28" s="25" t="s">
         <v>1</v>
@@ -2210,7 +2222,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -2234,16 +2246,16 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
       <c r="D31" s="63"/>
       <c r="E31" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
@@ -2277,16 +2289,16 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="6">
@@ -2326,22 +2338,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="E35" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G35" s="6">
         <v>11</v>
@@ -2365,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="6">
@@ -2415,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="6">
@@ -2440,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="6">
@@ -2453,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2506,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2516,7 +2528,7 @@
         <v>38</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>1</v>
@@ -2527,7 +2539,7 @@
         <v>38</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I45" s="25" t="s">
         <v>1</v>
@@ -2535,7 +2547,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -2559,14 +2571,14 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
       <c r="D48" s="60"/>
       <c r="E48" s="48"/>
       <c r="F48" s="58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G48" s="59"/>
       <c r="H48" s="59"/>
@@ -2574,16 +2586,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49" s="50">
         <v>8</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>3</v>
@@ -2611,7 +2623,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="6">
